--- a/Result_data/KNN_10.xlsx
+++ b/Result_data/KNN_10.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A229"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,72 +641,77 @@
     <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>

--- a/Result_data/KNN_10.xlsx
+++ b/Result_data/KNN_10.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>### run_KNN_baseline ##################################################</t>
   </si>
@@ -313,6 +314,15 @@
   </si>
   <si>
     <t># Runtime: 25.321 secs</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -632,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A223" activeCellId="9" sqref="A16 A39 A62 A85 A108 A131 A154 A177 A200 A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,4 +1559,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1175A86-600A-4F4A-B226-BF766E927169}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E1">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="F1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0.81</v>
+      </c>
+      <c r="E2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G10">
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>